--- a/Donors.xlsx
+++ b/Donors.xlsx
@@ -1,20 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodingProjects\DonorProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF691D7-C7ED-4CAB-8BFD-7CB0EECDD10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="RCG" sheetId="1" r:id="rId1"/>
+    <sheet name="OTG" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+  <si>
+    <t>Grandma</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Karl Sponsler</t>
+  </si>
+  <si>
+    <t>Catherine Boyle</t>
+  </si>
+  <si>
+    <t>Andrew Mullins</t>
+  </si>
+  <si>
+    <t>Aunt Sharon</t>
+  </si>
+  <si>
+    <t>Mari Velez</t>
+  </si>
+  <si>
+    <t>Patrick McCarthy</t>
+  </si>
+  <si>
+    <t>Hope Merc</t>
+  </si>
+  <si>
+    <t>Marco Laureno</t>
+  </si>
+  <si>
+    <t>Cara McCarthy</t>
+  </si>
+  <si>
+    <t>Teddy Hudson</t>
+  </si>
+  <si>
+    <t>Erika Vela</t>
+  </si>
+  <si>
+    <t>Brittany Vanden</t>
+  </si>
+  <si>
+    <t>Jesse Bonilla</t>
+  </si>
+  <si>
+    <t>Maris Bey</t>
+  </si>
+  <si>
+    <t>Uncle Clem</t>
+  </si>
+  <si>
+    <t>Sarah Tohill</t>
+  </si>
+  <si>
+    <t>Alicia Libetti</t>
+  </si>
+  <si>
+    <t>Andrew Kurt</t>
+  </si>
+  <si>
+    <t>Eliza Owen</t>
+  </si>
+  <si>
+    <t>Dad</t>
+  </si>
+  <si>
+    <t>Sophia Libetti</t>
+  </si>
+  <si>
+    <t>Brian Albert</t>
+  </si>
+  <si>
+    <t>Jarek Sulak</t>
+  </si>
+  <si>
+    <t>Peter Nguyen</t>
+  </si>
+  <si>
+    <t>will Blackley</t>
+  </si>
+  <si>
+    <t>Jaymee Laureno</t>
+  </si>
+  <si>
+    <t>John Veres</t>
+  </si>
+  <si>
+    <t>Caleb Hipskind</t>
+  </si>
+  <si>
+    <t>Zach Merc</t>
+  </si>
+  <si>
+    <t>chris mancini</t>
+  </si>
+  <si>
+    <t>Josh Janda</t>
+  </si>
+  <si>
+    <t>Xander Hoffman</t>
+  </si>
+  <si>
+    <t>luke Fairenholt</t>
+  </si>
+  <si>
+    <t>Vagabond</t>
+  </si>
+  <si>
+    <t>Ray Rodigurez</t>
+  </si>
+  <si>
+    <t>Jill Witter</t>
+  </si>
   <si>
     <t>Donor ID</t>
   </si>
@@ -22,26 +143,36 @@
     <t>Donor Name</t>
   </si>
   <si>
-    <t>Amount Donated</t>
-  </si>
-  <si>
-    <t>ewrw</t>
+    <t>Gift Amount</t>
+  </si>
+  <si>
+    <t>Rob and Maria Moloney</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Josh Nelson</t>
+  </si>
+  <si>
+    <t>Mike and Pam</t>
+  </si>
+  <si>
+    <t>Ben Hooper</t>
+  </si>
+  <si>
+    <t>John and Carol Spader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -65,36 +196,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +294,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +346,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,33 +539,553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>128.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>72.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>51.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921131B6-CCAB-418A-A426-4B9DE3B5EC90}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1232</v>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>51.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
